--- a/TestQuit/TestFood/wwwroot/Data/Food sales.xlsx
+++ b/TestQuit/TestFood/wwwroot/Data/Food sales.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>OrderDate</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Whole Wheat</t>
   </si>
   <si>
-    <t>555555</t>
-  </si>
-  <si>
     <t>West</t>
   </si>
   <si>
@@ -115,6 +112,12 @@
   </si>
   <si>
     <t>Banana</t>
+  </si>
+  <si>
+    <t>1482-09-11</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -546,7 +549,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80BD6B5E-DD64-4F7E-92DF-95B092B1BAE2}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H245"/>
+  <dimension ref="A1:H246"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -555,14 +558,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="1" width="12.5703125" customWidth="1" style="1"/>
-    <col min="2" max="2" bestFit="1" width="9.42578125" customWidth="1"/>
-    <col min="3" max="3" bestFit="1" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" bestFit="1" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" bestFit="1" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" bestFit="1" width="11" customWidth="1"/>
-    <col min="7" max="7" bestFit="1" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" bestFit="1" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" bestFit="1" width="12.248076438903809" customWidth="1" style="1"/>
+    <col min="2" max="2" bestFit="1" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="10.96180248260498" customWidth="1"/>
+    <col min="4" max="4" bestFit="1" width="10.812715530395508" customWidth="1"/>
+    <col min="5" max="5" bestFit="1" width="13.898001670837402" customWidth="1"/>
+    <col min="6" max="6" bestFit="1" width="10.619356155395508" customWidth="1"/>
+    <col min="7" max="7" bestFit="1" width="11.033697128295898" customWidth="1"/>
+    <col min="8" max="8" bestFit="1" width="11.7385892868042" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -634,14 +637,14 @@
       <c r="E3" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>14</v>
+      <c r="F3" s="0">
+        <v>6666666</v>
       </c>
       <c r="G3" s="0">
         <v>3.49</v>
       </c>
       <c r="H3" s="0">
-        <v>1938886.9499999997</v>
+        <v>23266664.34</v>
       </c>
     </row>
     <row r="4">
@@ -649,16 +652,16 @@
         <v>43837</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="D4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>18</v>
       </c>
       <c r="F4" s="0">
         <v>58</v>
@@ -679,13 +682,13 @@
         <v>8</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>18</v>
       </c>
       <c r="F5" s="0">
         <v>82</v>
@@ -709,10 +712,10 @@
         <v>9</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" s="0">
         <v>38</v>
@@ -784,10 +787,10 @@
         <v>43852</v>
       </c>
       <c r="B9" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>16</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>10</v>
@@ -814,7 +817,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>10</v>
@@ -841,13 +844,13 @@
         <v>8</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>22</v>
       </c>
       <c r="F11" s="0">
         <v>28</v>
@@ -871,10 +874,10 @@
         <v>9</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F12" s="0">
         <v>36</v>
@@ -898,10 +901,10 @@
         <v>9</v>
       </c>
       <c r="D13" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>18</v>
       </c>
       <c r="F13" s="0">
         <v>31</v>
@@ -946,10 +949,10 @@
         <v>43870</v>
       </c>
       <c r="B15" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>16</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>10</v>
@@ -976,7 +979,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>10</v>
@@ -1003,13 +1006,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>22</v>
       </c>
       <c r="F17" s="0">
         <v>27</v>
@@ -1033,10 +1036,10 @@
         <v>9</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F18" s="0">
         <v>43</v>
@@ -1060,10 +1063,10 @@
         <v>9</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F19" s="0">
         <v>123</v>
@@ -1081,16 +1084,16 @@
         <v>43885</v>
       </c>
       <c r="B20" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="D20" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F20" s="0">
         <v>42</v>
@@ -1108,16 +1111,16 @@
         <v>43888</v>
       </c>
       <c r="B21" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="D21" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F21" s="0">
         <v>33</v>
@@ -1138,13 +1141,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D22" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>18</v>
       </c>
       <c r="F22" s="0">
         <v>85</v>
@@ -1162,16 +1165,16 @@
         <v>43895</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F23" s="0">
         <v>30</v>
@@ -1243,16 +1246,16 @@
         <v>43904</v>
       </c>
       <c r="B26" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="D26" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>18</v>
       </c>
       <c r="F26" s="0">
         <v>86</v>
@@ -1273,7 +1276,7 @@
         <v>8</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>10</v>
@@ -1300,13 +1303,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D28" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>22</v>
       </c>
       <c r="F28" s="0">
         <v>68</v>
@@ -1324,16 +1327,16 @@
         <v>43913</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D29" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>18</v>
       </c>
       <c r="F29" s="0">
         <v>39</v>
@@ -1360,7 +1363,7 @@
         <v>10</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F30" s="0">
         <v>103</v>
@@ -1384,10 +1387,10 @@
         <v>9</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F31" s="0">
         <v>193</v>
@@ -1405,10 +1408,10 @@
         <v>43922</v>
       </c>
       <c r="B32" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>16</v>
       </c>
       <c r="D32" s="0" t="s">
         <v>10</v>
@@ -1432,16 +1435,16 @@
         <v>43925</v>
       </c>
       <c r="B33" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="D33" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="E33" s="0" t="s">
-        <v>22</v>
       </c>
       <c r="F33" s="0">
         <v>68</v>
@@ -1462,7 +1465,7 @@
         <v>8</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D34" s="0" t="s">
         <v>10</v>
@@ -1489,7 +1492,7 @@
         <v>8</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>12</v>
@@ -1513,16 +1516,16 @@
         <v>43934</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D36" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>22</v>
       </c>
       <c r="F36" s="0">
         <v>28</v>
@@ -1573,10 +1576,10 @@
         <v>9</v>
       </c>
       <c r="D38" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="E38" s="0" t="s">
-        <v>22</v>
       </c>
       <c r="F38" s="0">
         <v>134</v>
@@ -1594,10 +1597,10 @@
         <v>43943</v>
       </c>
       <c r="B39" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>16</v>
       </c>
       <c r="D39" s="0" t="s">
         <v>10</v>
@@ -1624,7 +1627,7 @@
         <v>8</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D40" s="0" t="s">
         <v>10</v>
@@ -1651,13 +1654,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D41" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="E41" s="0" t="s">
-        <v>22</v>
       </c>
       <c r="F41" s="0">
         <v>64</v>
@@ -1675,16 +1678,16 @@
         <v>43952</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D42" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="E42" s="0" t="s">
-        <v>18</v>
       </c>
       <c r="F42" s="0">
         <v>63</v>
@@ -1711,7 +1714,7 @@
         <v>10</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F43" s="0">
         <v>105</v>
@@ -1735,10 +1738,10 @@
         <v>9</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F44" s="0">
         <v>138</v>
@@ -1756,10 +1759,10 @@
         <v>43961</v>
       </c>
       <c r="B45" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="C45" s="0" t="s">
-        <v>16</v>
       </c>
       <c r="D45" s="0" t="s">
         <v>10</v>
@@ -1783,10 +1786,10 @@
         <v>43964</v>
       </c>
       <c r="B46" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="C46" s="0" t="s">
-        <v>16</v>
       </c>
       <c r="D46" s="0" t="s">
         <v>12</v>
@@ -1813,7 +1816,7 @@
         <v>8</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D47" s="0" t="s">
         <v>10</v>
@@ -1840,13 +1843,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D48" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="E48" s="0" t="s">
-        <v>22</v>
       </c>
       <c r="F48" s="0">
         <v>49</v>
@@ -1864,16 +1867,16 @@
         <v>43973</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D49" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="E49" s="0" t="s">
-        <v>18</v>
       </c>
       <c r="F49" s="0">
         <v>55</v>
@@ -1897,10 +1900,10 @@
         <v>9</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F50" s="0">
         <v>27</v>
@@ -1972,16 +1975,16 @@
         <v>43985</v>
       </c>
       <c r="B53" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C53" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="D53" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F53" s="0">
         <v>288</v>
@@ -2002,13 +2005,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D54" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E54" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="E54" s="0" t="s">
-        <v>18</v>
       </c>
       <c r="F54" s="0">
         <v>76</v>
@@ -2026,10 +2029,10 @@
         <v>43991</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D55" s="0" t="s">
         <v>10</v>
@@ -2053,10 +2056,10 @@
         <v>43994</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D56" s="0" t="s">
         <v>12</v>
@@ -2134,10 +2137,10 @@
         <v>44003</v>
       </c>
       <c r="B59" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="C59" s="0" t="s">
-        <v>16</v>
       </c>
       <c r="D59" s="0" t="s">
         <v>10</v>
@@ -2161,16 +2164,16 @@
         <v>44006</v>
       </c>
       <c r="B60" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C60" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="D60" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E60" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="E60" s="0" t="s">
-        <v>22</v>
       </c>
       <c r="F60" s="0">
         <v>28</v>
@@ -2191,13 +2194,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D61" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F61" s="0">
         <v>110</v>
@@ -2218,13 +2221,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F62" s="0">
         <v>51</v>
@@ -2242,10 +2245,10 @@
         <v>44015</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D63" s="0" t="s">
         <v>10</v>
@@ -2269,10 +2272,10 @@
         <v>44018</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D64" s="0" t="s">
         <v>12</v>
@@ -2350,16 +2353,16 @@
         <v>44027</v>
       </c>
       <c r="B67" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C67" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="D67" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E67" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="E67" s="0" t="s">
-        <v>18</v>
       </c>
       <c r="F67" s="0">
         <v>75</v>
@@ -2380,13 +2383,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D68" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F68" s="0">
         <v>72</v>
@@ -2407,13 +2410,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F69" s="0">
         <v>56</v>
@@ -2431,16 +2434,16 @@
         <v>44036</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D70" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F70" s="0">
         <v>51</v>
@@ -2458,16 +2461,16 @@
         <v>44039</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D71" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E71" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="E71" s="0" t="s">
-        <v>22</v>
       </c>
       <c r="F71" s="0">
         <v>31</v>
@@ -2494,7 +2497,7 @@
         <v>10</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F72" s="0">
         <v>56</v>
@@ -2518,10 +2521,10 @@
         <v>9</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F73" s="0">
         <v>137</v>
@@ -2539,16 +2542,16 @@
         <v>44048</v>
       </c>
       <c r="B74" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C74" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="D74" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E74" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="E74" s="0" t="s">
-        <v>18</v>
       </c>
       <c r="F74" s="0">
         <v>107</v>
@@ -2569,7 +2572,7 @@
         <v>8</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D75" s="0" t="s">
         <v>10</v>
@@ -2596,7 +2599,7 @@
         <v>8</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D76" s="0" t="s">
         <v>12</v>
@@ -2620,16 +2623,16 @@
         <v>44057</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D77" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E77" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="E77" s="0" t="s">
-        <v>18</v>
       </c>
       <c r="F77" s="0">
         <v>70</v>
@@ -2653,10 +2656,10 @@
         <v>9</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F78" s="0">
         <v>31</v>
@@ -2728,16 +2731,16 @@
         <v>44069</v>
       </c>
       <c r="B81" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C81" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="D81" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E81" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="E81" s="0" t="s">
-        <v>18</v>
       </c>
       <c r="F81" s="0">
         <v>80</v>
@@ -2758,13 +2761,13 @@
         <v>8</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D82" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F82" s="0">
         <v>75</v>
@@ -2785,13 +2788,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F83" s="0">
         <v>74</v>
@@ -2809,10 +2812,10 @@
         <v>44078</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D84" s="0" t="s">
         <v>10</v>
@@ -2842,10 +2845,10 @@
         <v>9</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F85" s="0">
         <v>28</v>
@@ -2896,10 +2899,10 @@
         <v>9</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F87" s="0">
         <v>27</v>
@@ -2917,10 +2920,10 @@
         <v>44090</v>
       </c>
       <c r="B88" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C88" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="C88" s="0" t="s">
-        <v>16</v>
       </c>
       <c r="D88" s="0" t="s">
         <v>10</v>
@@ -2947,13 +2950,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D89" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E89" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="D89" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E89" s="0" t="s">
-        <v>20</v>
       </c>
       <c r="F89" s="0">
         <v>110</v>
@@ -2974,13 +2977,13 @@
         <v>8</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D90" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E90" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="E90" s="0" t="s">
-        <v>18</v>
       </c>
       <c r="F90" s="0">
         <v>65</v>
@@ -2998,16 +3001,16 @@
         <v>44099</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D91" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F91" s="0">
         <v>33</v>
@@ -3031,10 +3034,10 @@
         <v>9</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F92" s="0">
         <v>81</v>
@@ -3106,10 +3109,10 @@
         <v>44111</v>
       </c>
       <c r="B95" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C95" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="C95" s="0" t="s">
-        <v>16</v>
       </c>
       <c r="D95" s="0" t="s">
         <v>10</v>
@@ -3133,16 +3136,16 @@
         <v>44114</v>
       </c>
       <c r="B96" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C96" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C96" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="D96" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E96" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="E96" s="0" t="s">
-        <v>22</v>
       </c>
       <c r="F96" s="0">
         <v>114</v>
@@ -3163,13 +3166,13 @@
         <v>8</v>
       </c>
       <c r="C97" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D97" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E97" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="D97" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E97" s="0" t="s">
-        <v>20</v>
       </c>
       <c r="F97" s="0">
         <v>224</v>
@@ -3190,7 +3193,7 @@
         <v>8</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D98" s="0" t="s">
         <v>10</v>
@@ -3217,7 +3220,7 @@
         <v>8</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D99" s="0" t="s">
         <v>12</v>
@@ -3241,10 +3244,10 @@
         <v>44126</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D100" s="0" t="s">
         <v>10</v>
@@ -3274,10 +3277,10 @@
         <v>9</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F101" s="0">
         <v>40</v>
@@ -3301,10 +3304,10 @@
         <v>9</v>
       </c>
       <c r="D102" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E102" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="E102" s="0" t="s">
-        <v>18</v>
       </c>
       <c r="F102" s="0">
         <v>49</v>
@@ -3349,10 +3352,10 @@
         <v>44138</v>
       </c>
       <c r="B104" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C104" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="C104" s="0" t="s">
-        <v>16</v>
       </c>
       <c r="D104" s="0" t="s">
         <v>10</v>
@@ -3376,16 +3379,16 @@
         <v>44141</v>
       </c>
       <c r="B105" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C105" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C105" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="D105" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E105" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="E105" s="0" t="s">
-        <v>22</v>
       </c>
       <c r="F105" s="0">
         <v>62</v>
@@ -3406,7 +3409,7 @@
         <v>8</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D106" s="0" t="s">
         <v>10</v>
@@ -3430,16 +3433,16 @@
         <v>44147</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F107" s="0">
         <v>103</v>
@@ -3457,16 +3460,16 @@
         <v>44150</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F108" s="0">
         <v>32</v>
@@ -3493,7 +3496,7 @@
         <v>10</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F109" s="0">
         <v>66</v>
@@ -3517,10 +3520,10 @@
         <v>9</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F110" s="0">
         <v>97</v>
@@ -3538,10 +3541,10 @@
         <v>44159</v>
       </c>
       <c r="B111" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C111" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="C111" s="0" t="s">
-        <v>16</v>
       </c>
       <c r="D111" s="0" t="s">
         <v>10</v>
@@ -3565,16 +3568,16 @@
         <v>44162</v>
       </c>
       <c r="B112" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C112" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C112" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="D112" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E112" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="E112" s="0" t="s">
-        <v>22</v>
       </c>
       <c r="F112" s="0">
         <v>29</v>
@@ -3595,7 +3598,7 @@
         <v>8</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D113" s="0" t="s">
         <v>10</v>
@@ -3619,16 +3622,16 @@
         <v>44168</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F114" s="0">
         <v>139</v>
@@ -3646,16 +3649,16 @@
         <v>44171</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F115" s="0">
         <v>29</v>
@@ -3682,7 +3685,7 @@
         <v>10</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F116" s="0">
         <v>30</v>
@@ -3706,10 +3709,10 @@
         <v>9</v>
       </c>
       <c r="D117" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E117" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="E117" s="0" t="s">
-        <v>18</v>
       </c>
       <c r="F117" s="0">
         <v>36</v>
@@ -3754,10 +3757,10 @@
         <v>44183</v>
       </c>
       <c r="B119" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C119" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="C119" s="0" t="s">
-        <v>16</v>
       </c>
       <c r="D119" s="0" t="s">
         <v>10</v>
@@ -3781,16 +3784,16 @@
         <v>44186</v>
       </c>
       <c r="B120" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C120" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C120" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="D120" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E120" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="E120" s="0" t="s">
-        <v>22</v>
       </c>
       <c r="F120" s="0">
         <v>29</v>
@@ -3811,13 +3814,13 @@
         <v>8</v>
       </c>
       <c r="C121" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D121" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E121" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="D121" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E121" s="0" t="s">
-        <v>20</v>
       </c>
       <c r="F121" s="0">
         <v>237</v>
@@ -3838,13 +3841,13 @@
         <v>8</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D122" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E122" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="E122" s="0" t="s">
-        <v>18</v>
       </c>
       <c r="F122" s="0">
         <v>65</v>
@@ -3862,16 +3865,16 @@
         <v>44195</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E123" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F123" s="0">
         <v>83</v>
@@ -3895,10 +3898,10 @@
         <v>9</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E124" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F124" s="0">
         <v>32</v>
@@ -3949,10 +3952,10 @@
         <v>9</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E126" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F126" s="0">
         <v>29</v>
@@ -3970,16 +3973,16 @@
         <v>44207</v>
       </c>
       <c r="B127" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C127" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C127" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="D127" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F127" s="0">
         <v>77</v>
@@ -3997,16 +4000,16 @@
         <v>44210</v>
       </c>
       <c r="B128" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C128" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C128" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="D128" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E128" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F128" s="0">
         <v>80</v>
@@ -4027,7 +4030,7 @@
         <v>8</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D129" s="0" t="s">
         <v>10</v>
@@ -4054,7 +4057,7 @@
         <v>8</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D130" s="0" t="s">
         <v>12</v>
@@ -4078,10 +4081,10 @@
         <v>44219</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D131" s="0" t="s">
         <v>10</v>
@@ -4111,10 +4114,10 @@
         <v>9</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E132" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F132" s="0">
         <v>52</v>
@@ -4165,10 +4168,10 @@
         <v>9</v>
       </c>
       <c r="D134" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E134" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="E134" s="0" t="s">
-        <v>22</v>
       </c>
       <c r="F134" s="0">
         <v>24</v>
@@ -4186,16 +4189,16 @@
         <v>44231</v>
       </c>
       <c r="B135" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C135" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C135" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="D135" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E135" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F135" s="0">
         <v>58</v>
@@ -4213,16 +4216,16 @@
         <v>44234</v>
       </c>
       <c r="B136" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C136" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C136" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="D136" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E136" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="E136" s="0" t="s">
-        <v>18</v>
       </c>
       <c r="F136" s="0">
         <v>34</v>
@@ -4243,7 +4246,7 @@
         <v>8</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D137" s="0" t="s">
         <v>10</v>
@@ -4270,13 +4273,13 @@
         <v>8</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D138" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E138" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="E138" s="0" t="s">
-        <v>22</v>
       </c>
       <c r="F138" s="0">
         <v>21</v>
@@ -4294,16 +4297,16 @@
         <v>44243</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D139" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E139" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F139" s="0">
         <v>29</v>
@@ -4354,10 +4357,10 @@
         <v>9</v>
       </c>
       <c r="D141" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E141" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F141" s="0">
         <v>31</v>
@@ -4375,16 +4378,16 @@
         <v>44252</v>
       </c>
       <c r="B142" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C142" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C142" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="D142" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E142" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F142" s="0">
         <v>30</v>
@@ -4402,16 +4405,16 @@
         <v>44255</v>
       </c>
       <c r="B143" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C143" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C143" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="D143" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E143" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="E143" s="0" t="s">
-        <v>18</v>
       </c>
       <c r="F143" s="0">
         <v>232</v>
@@ -4432,13 +4435,13 @@
         <v>8</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D144" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E144" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F144" s="0">
         <v>68</v>
@@ -4459,13 +4462,13 @@
         <v>8</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D145" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E145" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F145" s="0">
         <v>97</v>
@@ -4483,16 +4486,16 @@
         <v>44263</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D146" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E146" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F146" s="0">
         <v>86</v>
@@ -4510,16 +4513,16 @@
         <v>44266</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D147" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E147" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="E147" s="0" t="s">
-        <v>22</v>
       </c>
       <c r="F147" s="0">
         <v>41</v>
@@ -4570,10 +4573,10 @@
         <v>9</v>
       </c>
       <c r="D149" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E149" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="E149" s="0" t="s">
-        <v>22</v>
       </c>
       <c r="F149" s="0">
         <v>47</v>
@@ -4591,10 +4594,10 @@
         <v>44275</v>
       </c>
       <c r="B150" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C150" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="C150" s="0" t="s">
-        <v>16</v>
       </c>
       <c r="D150" s="0" t="s">
         <v>10</v>
@@ -4618,16 +4621,16 @@
         <v>44278</v>
       </c>
       <c r="B151" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C151" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C151" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="D151" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E151" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="E151" s="0" t="s">
-        <v>22</v>
       </c>
       <c r="F151" s="0">
         <v>33</v>
@@ -4648,13 +4651,13 @@
         <v>8</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D152" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E152" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F152" s="0">
         <v>57</v>
@@ -4675,13 +4678,13 @@
         <v>8</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D153" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E153" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F153" s="0">
         <v>65</v>
@@ -4699,10 +4702,10 @@
         <v>44287</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D154" s="0" t="s">
         <v>10</v>
@@ -4732,10 +4735,10 @@
         <v>9</v>
       </c>
       <c r="D155" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E155" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F155" s="0">
         <v>36</v>
@@ -4759,10 +4762,10 @@
         <v>9</v>
       </c>
       <c r="D156" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E156" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F156" s="0">
         <v>123</v>
@@ -4780,10 +4783,10 @@
         <v>44296</v>
       </c>
       <c r="B157" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C157" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="C157" s="0" t="s">
-        <v>16</v>
       </c>
       <c r="D157" s="0" t="s">
         <v>10</v>
@@ -4807,10 +4810,10 @@
         <v>44299</v>
       </c>
       <c r="B158" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C158" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="C158" s="0" t="s">
-        <v>16</v>
       </c>
       <c r="D158" s="0" t="s">
         <v>12</v>
@@ -4837,7 +4840,7 @@
         <v>8</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D159" s="0" t="s">
         <v>10</v>
@@ -4864,13 +4867,13 @@
         <v>8</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D160" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E160" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="E160" s="0" t="s">
-        <v>22</v>
       </c>
       <c r="F160" s="0">
         <v>24</v>
@@ -4888,16 +4891,16 @@
         <v>44308</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D161" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E161" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="E161" s="0" t="s">
-        <v>18</v>
       </c>
       <c r="F161" s="0">
         <v>67</v>
@@ -4924,7 +4927,7 @@
         <v>10</v>
       </c>
       <c r="E162" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F162" s="0">
         <v>27</v>
@@ -4948,10 +4951,10 @@
         <v>9</v>
       </c>
       <c r="D163" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E163" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F163" s="0">
         <v>129</v>
@@ -4969,16 +4972,16 @@
         <v>44317</v>
       </c>
       <c r="B164" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C164" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C164" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="D164" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E164" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F164" s="0">
         <v>77</v>
@@ -4996,16 +4999,16 @@
         <v>44320</v>
       </c>
       <c r="B165" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C165" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C165" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="D165" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E165" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="E165" s="0" t="s">
-        <v>18</v>
       </c>
       <c r="F165" s="0">
         <v>58</v>
@@ -5026,13 +5029,13 @@
         <v>8</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D166" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E166" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F166" s="0">
         <v>47</v>
@@ -5053,13 +5056,13 @@
         <v>8</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D167" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E167" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F167" s="0">
         <v>33</v>
@@ -5077,16 +5080,16 @@
         <v>44329</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D168" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E168" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="E168" s="0" t="s">
-        <v>18</v>
       </c>
       <c r="F168" s="0">
         <v>82</v>
@@ -5137,10 +5140,10 @@
         <v>9</v>
       </c>
       <c r="D170" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E170" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F170" s="0">
         <v>30</v>
@@ -5158,16 +5161,16 @@
         <v>44338</v>
       </c>
       <c r="B171" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C171" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C171" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="D171" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E171" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="E171" s="0" t="s">
-        <v>18</v>
       </c>
       <c r="F171" s="0">
         <v>43</v>
@@ -5188,7 +5191,7 @@
         <v>8</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D172" s="0" t="s">
         <v>10</v>
@@ -5212,16 +5215,16 @@
         <v>44344</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D173" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E173" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F173" s="0">
         <v>36</v>
@@ -5239,16 +5242,16 @@
         <v>44347</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D174" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E174" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F174" s="0">
         <v>44</v>
@@ -5275,7 +5278,7 @@
         <v>10</v>
       </c>
       <c r="E175" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F175" s="0">
         <v>27</v>
@@ -5299,10 +5302,10 @@
         <v>9</v>
       </c>
       <c r="D176" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E176" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F176" s="0">
         <v>120</v>
@@ -5347,10 +5350,10 @@
         <v>44359</v>
       </c>
       <c r="B178" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C178" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="C178" s="0" t="s">
-        <v>16</v>
       </c>
       <c r="D178" s="0" t="s">
         <v>10</v>
@@ -5377,13 +5380,13 @@
         <v>8</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D179" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E179" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F179" s="0">
         <v>38</v>
@@ -5404,13 +5407,13 @@
         <v>8</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D180" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E180" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F180" s="0">
         <v>40</v>
@@ -5428,10 +5431,10 @@
         <v>44368</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D181" s="0" t="s">
         <v>10</v>
@@ -5464,7 +5467,7 @@
         <v>10</v>
       </c>
       <c r="E182" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F182" s="0">
         <v>27</v>
@@ -5488,10 +5491,10 @@
         <v>9</v>
       </c>
       <c r="D183" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E183" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="E183" s="0" t="s">
-        <v>18</v>
       </c>
       <c r="F183" s="0">
         <v>38</v>
@@ -5536,16 +5539,16 @@
         <v>44380</v>
       </c>
       <c r="B185" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C185" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C185" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="D185" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E185" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F185" s="0">
         <v>65</v>
@@ -5563,16 +5566,16 @@
         <v>44383</v>
       </c>
       <c r="B186" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C186" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C186" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="D186" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E186" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F186" s="0">
         <v>60</v>
@@ -5593,13 +5596,13 @@
         <v>8</v>
       </c>
       <c r="C187" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D187" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E187" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="D187" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E187" s="0" t="s">
-        <v>20</v>
       </c>
       <c r="F187" s="0">
         <v>37</v>
@@ -5620,13 +5623,13 @@
         <v>8</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D188" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E188" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="E188" s="0" t="s">
-        <v>18</v>
       </c>
       <c r="F188" s="0">
         <v>40</v>
@@ -5644,16 +5647,16 @@
         <v>44392</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D189" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E189" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F189" s="0">
         <v>26</v>
@@ -5680,7 +5683,7 @@
         <v>10</v>
       </c>
       <c r="E190" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F190" s="0">
         <v>22</v>
@@ -5704,10 +5707,10 @@
         <v>9</v>
       </c>
       <c r="D191" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E191" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="E191" s="0" t="s">
-        <v>18</v>
       </c>
       <c r="F191" s="0">
         <v>32</v>
@@ -5752,16 +5755,16 @@
         <v>44404</v>
       </c>
       <c r="B193" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C193" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C193" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="D193" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E193" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F193" s="0">
         <v>20</v>
@@ -5779,16 +5782,16 @@
         <v>44407</v>
       </c>
       <c r="B194" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C194" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C194" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="D194" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E194" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="E194" s="0" t="s">
-        <v>18</v>
       </c>
       <c r="F194" s="0">
         <v>64</v>
@@ -5809,7 +5812,7 @@
         <v>8</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D195" s="0" t="s">
         <v>10</v>
@@ -5833,16 +5836,16 @@
         <v>44413</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D196" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E196" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F196" s="0">
         <v>90</v>
@@ -5860,16 +5863,16 @@
         <v>44416</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D197" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E197" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F197" s="0">
         <v>38</v>
@@ -5920,10 +5923,10 @@
         <v>9</v>
       </c>
       <c r="D199" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E199" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F199" s="0">
         <v>22</v>
@@ -5941,10 +5944,10 @@
         <v>44425</v>
       </c>
       <c r="B200" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C200" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="C200" s="0" t="s">
-        <v>16</v>
       </c>
       <c r="D200" s="0" t="s">
         <v>10</v>
@@ -5971,13 +5974,13 @@
         <v>8</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D201" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E201" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F201" s="0">
         <v>39</v>
@@ -5998,13 +6001,13 @@
         <v>8</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D202" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E202" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F202" s="0">
         <v>41</v>
@@ -6022,10 +6025,10 @@
         <v>44434</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D203" s="0" t="s">
         <v>10</v>
@@ -6055,10 +6058,10 @@
         <v>9</v>
       </c>
       <c r="D204" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E204" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F204" s="0">
         <v>136</v>
@@ -6109,10 +6112,10 @@
         <v>9</v>
       </c>
       <c r="D206" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E206" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F206" s="0">
         <v>26</v>
@@ -6130,16 +6133,16 @@
         <v>44446</v>
       </c>
       <c r="B207" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C207" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C207" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="D207" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E207" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F207" s="0">
         <v>50</v>
@@ -6157,16 +6160,16 @@
         <v>44449</v>
       </c>
       <c r="B208" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C208" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C208" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="D208" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E208" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F208" s="0">
         <v>79</v>
@@ -6187,7 +6190,7 @@
         <v>8</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D209" s="0" t="s">
         <v>10</v>
@@ -6214,13 +6217,13 @@
         <v>8</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D210" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E210" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="E210" s="0" t="s">
-        <v>22</v>
       </c>
       <c r="F210" s="0">
         <v>20</v>
@@ -6238,10 +6241,10 @@
         <v>44458</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D211" s="0" t="s">
         <v>10</v>
@@ -6271,10 +6274,10 @@
         <v>9</v>
       </c>
       <c r="D212" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E212" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F212" s="0">
         <v>40</v>
@@ -6325,10 +6328,10 @@
         <v>9</v>
       </c>
       <c r="D214" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E214" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F214" s="0">
         <v>21</v>
@@ -6346,16 +6349,16 @@
         <v>44470</v>
       </c>
       <c r="B215" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C215" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C215" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="D215" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E215" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F215" s="0">
         <v>43</v>
@@ -6373,16 +6376,16 @@
         <v>44473</v>
       </c>
       <c r="B216" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C216" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C216" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="D216" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E216" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F216" s="0">
         <v>47</v>
@@ -6403,13 +6406,13 @@
         <v>8</v>
       </c>
       <c r="C217" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D217" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E217" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="D217" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E217" s="0" t="s">
-        <v>20</v>
       </c>
       <c r="F217" s="0">
         <v>175</v>
@@ -6430,13 +6433,13 @@
         <v>8</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D218" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E218" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="E218" s="0" t="s">
-        <v>18</v>
       </c>
       <c r="F218" s="0">
         <v>23</v>
@@ -6454,10 +6457,10 @@
         <v>44482</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D219" s="0" t="s">
         <v>10</v>
@@ -6487,10 +6490,10 @@
         <v>9</v>
       </c>
       <c r="D220" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E220" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F220" s="0">
         <v>87</v>
@@ -6562,10 +6565,10 @@
         <v>44494</v>
       </c>
       <c r="B223" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C223" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="C223" s="0" t="s">
-        <v>16</v>
       </c>
       <c r="D223" s="0" t="s">
         <v>10</v>
@@ -6592,13 +6595,13 @@
         <v>8</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D224" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E224" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F224" s="0">
         <v>57</v>
@@ -6619,13 +6622,13 @@
         <v>8</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D225" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E225" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="E225" s="0" t="s">
-        <v>22</v>
       </c>
       <c r="F225" s="0">
         <v>25</v>
@@ -6643,16 +6646,16 @@
         <v>44503</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D226" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E226" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="E226" s="0" t="s">
-        <v>18</v>
       </c>
       <c r="F226" s="0">
         <v>24</v>
@@ -6679,7 +6682,7 @@
         <v>10</v>
       </c>
       <c r="E227" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F227" s="0">
         <v>83</v>
@@ -6703,10 +6706,10 @@
         <v>9</v>
       </c>
       <c r="D228" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E228" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F228" s="0">
         <v>124</v>
@@ -6724,10 +6727,10 @@
         <v>44512</v>
       </c>
       <c r="B229" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C229" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="C229" s="0" t="s">
-        <v>16</v>
       </c>
       <c r="D229" s="0" t="s">
         <v>10</v>
@@ -6754,13 +6757,13 @@
         <v>8</v>
       </c>
       <c r="C230" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D230" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E230" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="D230" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E230" s="0" t="s">
-        <v>20</v>
       </c>
       <c r="F230" s="0">
         <v>146</v>
@@ -6781,13 +6784,13 @@
         <v>8</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D231" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E231" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="E231" s="0" t="s">
-        <v>18</v>
       </c>
       <c r="F231" s="0">
         <v>34</v>
@@ -6805,10 +6808,10 @@
         <v>44521</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D232" s="0" t="s">
         <v>10</v>
@@ -6838,10 +6841,10 @@
         <v>9</v>
       </c>
       <c r="D233" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E233" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F233" s="0">
         <v>139</v>
@@ -6865,10 +6868,10 @@
         <v>9</v>
       </c>
       <c r="D234" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E234" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="E234" s="0" t="s">
-        <v>18</v>
       </c>
       <c r="F234" s="0">
         <v>211</v>
@@ -6913,16 +6916,16 @@
         <v>44533</v>
       </c>
       <c r="B236" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C236" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C236" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="D236" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E236" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F236" s="0">
         <v>42</v>
@@ -6940,16 +6943,16 @@
         <v>44536</v>
       </c>
       <c r="B237" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C237" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C237" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="D237" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E237" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F237" s="0">
         <v>100</v>
@@ -6970,7 +6973,7 @@
         <v>8</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D238" s="0" t="s">
         <v>10</v>
@@ -6997,7 +7000,7 @@
         <v>8</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D239" s="0" t="s">
         <v>12</v>
@@ -7021,16 +7024,16 @@
         <v>44545</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C240" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D240" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E240" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="E240" s="0" t="s">
-        <v>18</v>
       </c>
       <c r="F240" s="0">
         <v>96</v>
@@ -7054,10 +7057,10 @@
         <v>9</v>
       </c>
       <c r="D241" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E241" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F241" s="0">
         <v>34</v>
@@ -7081,10 +7084,10 @@
         <v>9</v>
       </c>
       <c r="D242" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E242" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="E242" s="0" t="s">
-        <v>18</v>
       </c>
       <c r="F242" s="0">
         <v>245</v>
@@ -7129,16 +7132,16 @@
         <v>44557</v>
       </c>
       <c r="B244" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C244" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C244" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="D244" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E244" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F244" s="0">
         <v>30</v>
@@ -7156,16 +7159,16 @@
         <v>44560</v>
       </c>
       <c r="B245" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C245" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C245" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="D245" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E245" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F245" s="0">
         <v>44</v>
@@ -7176,6 +7179,32 @@
       <c r="H245" s="0">
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>124.96</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B246" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C246" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D246" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E246" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F246" s="0">
+        <v>1</v>
+      </c>
+      <c r="G246" s="0">
+        <v>1</v>
+      </c>
+      <c r="H246" s="0">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/TestQuit/TestFood/wwwroot/Data/Food sales.xlsx
+++ b/TestQuit/TestFood/wwwroot/Data/Food sales.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>OrderDate</t>
   </si>
@@ -118,6 +118,30 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>1482-09-04</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1482-09-25543</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2025/09/24</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2025/09/18</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
 </sst>
 </file>
@@ -549,7 +573,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80BD6B5E-DD64-4F7E-92DF-95B092B1BAE2}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H246"/>
+  <dimension ref="A1:H250"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -558,14 +582,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="1" width="12.248076438903809" customWidth="1" style="1"/>
+    <col min="1" max="1" bestFit="1" width="14.050437927246094" customWidth="1" style="1"/>
     <col min="2" max="2" bestFit="1" width="9.140625" customWidth="1"/>
     <col min="3" max="3" bestFit="1" width="10.96180248260498" customWidth="1"/>
     <col min="4" max="4" bestFit="1" width="10.812715530395508" customWidth="1"/>
     <col min="5" max="5" bestFit="1" width="13.898001670837402" customWidth="1"/>
     <col min="6" max="6" bestFit="1" width="10.619356155395508" customWidth="1"/>
     <col min="7" max="7" bestFit="1" width="11.033697128295898" customWidth="1"/>
-    <col min="8" max="8" bestFit="1" width="11.7385892868042" customWidth="1"/>
+    <col min="8" max="8" bestFit="1" width="12.18027400970459" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -611,14 +635,13 @@
         <v>11</v>
       </c>
       <c r="F2" s="0">
-        <v>33</v>
+        <v>666666</v>
       </c>
       <c r="G2" s="0">
         <v>1.7699999999999998</v>
       </c>
       <c r="H2" s="0">
-        <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
-        <v>58.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -7205,6 +7228,110 @@
       </c>
       <c r="H246" s="0">
         <v>1</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B247" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C247" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D247" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E247" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F247" s="0">
+        <v>2</v>
+      </c>
+      <c r="G247" s="0">
+        <v>2</v>
+      </c>
+      <c r="H247" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B248" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C248" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D248" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E248" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F248" s="0">
+        <v>3</v>
+      </c>
+      <c r="G248" s="0">
+        <v>3</v>
+      </c>
+      <c r="H248" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B249" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C249" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D249" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E249" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F249" s="0">
+        <v>4</v>
+      </c>
+      <c r="G249" s="0">
+        <v>4</v>
+      </c>
+      <c r="H249" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B250" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C250" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D250" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E250" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F250" s="0">
+        <v>5</v>
+      </c>
+      <c r="G250" s="0">
+        <v>5</v>
+      </c>
+      <c r="H250" s="0">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/TestQuit/TestFood/wwwroot/Data/Food sales.xlsx
+++ b/TestQuit/TestFood/wwwroot/Data/Food sales.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>OrderDate</t>
   </si>
@@ -142,6 +142,15 @@
   </si>
   <si>
     <t>5</t>
+  </si>
+  <si>
+    <t>02/09/2025</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
 </sst>
 </file>
@@ -573,7 +582,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80BD6B5E-DD64-4F7E-92DF-95B092B1BAE2}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H250"/>
+  <dimension ref="A1:H252"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -7334,6 +7343,58 @@
         <v>25</v>
       </c>
     </row>
+    <row r="251">
+      <c r="A251" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B251" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C251" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D251" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E251" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F251" s="0">
+        <v>6</v>
+      </c>
+      <c r="G251" s="0">
+        <v>6</v>
+      </c>
+      <c r="H251" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B252" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C252" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D252" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E252" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F252" s="0">
+        <v>7</v>
+      </c>
+      <c r="G252" s="0">
+        <v>7</v>
+      </c>
+      <c r="H252" s="0">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/TestQuit/TestFood/wwwroot/Data/Food sales.xlsx
+++ b/TestQuit/TestFood/wwwroot/Data/Food sales.xlsx
@@ -15,7 +15,7 @@
   <sheets>
     <sheet name="FoodSales" sheetId="16" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1" fullPrecision="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>OrderDate</t>
   </si>
@@ -114,43 +114,7 @@
     <t>Banana</t>
   </si>
   <si>
-    <t>1482-09-11</t>
-  </si>
-  <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>1482-09-04</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1482-09-25543</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2025/09/24</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>2025/09/18</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>02/09/2025</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
   </si>
 </sst>
 </file>
@@ -582,7 +546,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80BD6B5E-DD64-4F7E-92DF-95B092B1BAE2}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H252"/>
+  <dimension ref="A1:H246"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -591,14 +555,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="1" width="14.050437927246094" customWidth="1" style="1"/>
-    <col min="2" max="2" bestFit="1" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" bestFit="1" width="10.96180248260498" customWidth="1"/>
-    <col min="4" max="4" bestFit="1" width="10.812715530395508" customWidth="1"/>
-    <col min="5" max="5" bestFit="1" width="13.898001670837402" customWidth="1"/>
-    <col min="6" max="6" bestFit="1" width="10.619356155395508" customWidth="1"/>
-    <col min="7" max="7" bestFit="1" width="11.033697128295898" customWidth="1"/>
-    <col min="8" max="8" bestFit="1" width="12.18027400970459" customWidth="1"/>
+    <col min="1" max="1" bestFit="1" width="13.625166893005371" customWidth="1" style="1"/>
+    <col min="2" max="2" bestFit="1" width="9.999852657318115" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="12.16766357421875" customWidth="1"/>
+    <col min="4" max="4" bestFit="1" width="12.116576194763184" customWidth="1"/>
+    <col min="5" max="5" bestFit="1" width="15.374131202697754" customWidth="1"/>
+    <col min="6" max="6" bestFit="1" width="11.703001022338867" customWidth="1"/>
+    <col min="7" max="7" bestFit="1" width="12.224756240844727" customWidth="1"/>
+    <col min="8" max="8" bestFit="1" width="12.941258430480957" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -650,6 +614,7 @@
         <v>1.7699999999999998</v>
       </c>
       <c r="H2" s="0">
+        <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>0</v>
       </c>
     </row>
@@ -676,6 +641,7 @@
         <v>3.49</v>
       </c>
       <c r="H3" s="0">
+        <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>23266664.34</v>
       </c>
     </row>
@@ -7214,20 +7180,20 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="1" t="s">
+      <c r="A246" s="1">
+        <v>45902</v>
+      </c>
+      <c r="B246" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B246" s="0" t="s">
-        <v>28</v>
-      </c>
       <c r="C246" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D246" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E246" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F246" s="0">
         <v>1</v>
@@ -7237,162 +7203,6 @@
       </c>
       <c r="H246" s="0">
         <v>1</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B247" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C247" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="D247" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="E247" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="F247" s="0">
-        <v>2</v>
-      </c>
-      <c r="G247" s="0">
-        <v>2</v>
-      </c>
-      <c r="H247" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B248" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="C248" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D248" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E248" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="F248" s="0">
-        <v>3</v>
-      </c>
-      <c r="G248" s="0">
-        <v>3</v>
-      </c>
-      <c r="H248" s="0">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B249" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C249" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="D249" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E249" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="F249" s="0">
-        <v>4</v>
-      </c>
-      <c r="G249" s="0">
-        <v>4</v>
-      </c>
-      <c r="H249" s="0">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B250" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C250" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="D250" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E250" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="F250" s="0">
-        <v>5</v>
-      </c>
-      <c r="G250" s="0">
-        <v>5</v>
-      </c>
-      <c r="H250" s="0">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B251" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C251" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="D251" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E251" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="F251" s="0">
-        <v>6</v>
-      </c>
-      <c r="G251" s="0">
-        <v>6</v>
-      </c>
-      <c r="H251" s="0">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B252" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="C252" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="D252" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="E252" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="F252" s="0">
-        <v>7</v>
-      </c>
-      <c r="G252" s="0">
-        <v>7</v>
-      </c>
-      <c r="H252" s="0">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
